--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076A989-2B38-44C4-A389-6E877082F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284972E-C311-4C0F-8A36-6F31E2FF7EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,7 +979,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,6 +1033,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,6 +1059,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1053,125 +1125,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1525,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:L15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1542,25 +1533,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,23 +1566,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1604,50 +1595,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1656,20 +1647,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="61" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1679,82 +1670,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="P5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="62"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="64" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1766,18 +1757,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1789,18 +1780,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1812,18 +1803,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1835,18 +1826,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1858,18 +1849,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1881,20 +1872,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1906,20 +1897,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="26" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1931,20 +1922,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="26" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1956,200 +1947,200 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="11">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="22"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="22"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="14.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="14.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="30" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="29.5" customHeight="1">
       <c r="A25" s="6">
@@ -2158,28 +2149,66 @@
       <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="26" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H23:L23"/>
@@ -2196,43 +2225,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284972E-C311-4C0F-8A36-6F31E2FF7EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA3E376-720E-45BE-8CBC-C1CC0E59D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>作成者</t>
   </si>
@@ -222,19 +222,6 @@
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品削除(確認)」と表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -598,44 +585,79 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セキュリティ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログイン時ではほかの画面に移動することはできず、ログイン画面にリダイレクトする。</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品削除(確認)画面」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
-      <t>ジ</t>
+      <t>マエ</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>ガメン</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログイン時にURLを入力する
-http://localhost:8080/ec-b/updateproduct/confirm</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body</t>
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/deleteproduct/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/deleteproduct/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1038,131 +1060,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1514,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1533,25 +1555,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1566,23 +1588,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1595,50 +1617,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="14" customHeight="1">
+      <c r="A4" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1647,20 +1669,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1670,82 +1692,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1757,18 +1779,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1780,18 +1802,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1803,18 +1825,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1826,18 +1848,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1849,18 +1871,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1872,20 +1894,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1897,20 +1919,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="C15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1922,20 +1944,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1947,45 +1969,45 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="C18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1996,21 +2018,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2021,21 +2043,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2046,21 +2068,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2071,112 +2093,163 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="14.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-    </row>
-    <row r="25" spans="1:17" ht="29.5" customHeight="1">
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+    </row>
+    <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="24" t="s">
+      <c r="B25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
+  <mergeCells count="57">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H24:L24"/>
@@ -2193,38 +2266,15 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA3E376-720E-45BE-8CBC-C1CC0E59D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE652680-61AA-4859-B836-BDC15DDDCACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>作成者</t>
   </si>
@@ -657,6 +657,22 @@
     </rPh>
     <rPh sb="67" eb="69">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1060,6 +1076,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1069,6 +1097,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1078,113 +1172,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1538,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1555,25 +1571,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,23 +1604,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1617,50 +1633,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1669,20 +1685,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1692,82 +1708,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="61" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1779,18 +1795,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1802,18 +1818,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1825,18 +1841,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1848,18 +1864,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1871,18 +1887,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1894,20 +1910,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1919,20 +1935,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1944,20 +1960,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="20" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1969,45 +1985,45 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2018,21 +2034,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2043,21 +2059,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2068,123 +2084,123 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="14.5" customHeight="1">
+    <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.5" customHeight="1">
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2195,21 +2211,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2218,6 +2234,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H23:L23"/>
@@ -2234,47 +2291,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE652680-61AA-4859-B836-BDC15DDDCACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A673D8-41D9-487A-B901-0823FD8BA2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -635,32 +635,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/deleteproduct/confirm」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/deleteproduct/confirm」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品検索画面へ遷移し、セッションが破棄される</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンケンサク</t>
@@ -673,6 +647,32 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/deleteproduct/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/deleteproduct/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1076,131 +1076,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:L21"/>
+      <selection activeCell="C26" sqref="C26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1571,25 +1571,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,23 +1604,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1633,50 +1633,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1685,20 +1685,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1708,82 +1708,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1795,18 +1795,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1818,18 +1818,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1841,18 +1841,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1864,18 +1864,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1887,18 +1887,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1910,20 +1910,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1935,20 +1935,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="24" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1960,20 +1960,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="24" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1985,45 +1985,45 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2034,21 +2034,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2059,21 +2059,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2084,21 +2084,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2109,98 +2109,98 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="49" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="49" t="s">
+      <c r="C25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2211,21 +2211,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="49" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2234,15 +2234,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H24:L24"/>
@@ -2259,38 +2282,15 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A673D8-41D9-487A-B901-0823FD8BA2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD56197F-7311-4B9E-9216-F032E1F33527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>作成者</t>
   </si>
@@ -615,19 +615,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン前メニュー」画面が表示される。</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -673,6 +660,40 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示されること</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1552,9 +1573,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:G26"/>
     </sheetView>
   </sheetViews>
@@ -2143,7 +2164,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -2185,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -2211,16 +2232,16 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -2232,8 +2253,33 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
     </row>
+    <row r="27" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="59">
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H23:L23"/>
@@ -2282,15 +2328,17 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD56197F-7311-4B9E-9216-F032E1F33527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3F42D-5546-4E40-BE0E-40371BC08A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -694,6 +694,21 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面がない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1097,6 +1112,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1106,6 +1133,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1115,113 +1208,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1575,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1592,25 +1607,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,23 +1640,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1651,53 +1666,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1706,20 +1723,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1729,85 +1746,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="61" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1816,21 +1853,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1839,21 +1882,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1862,21 +1911,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1885,21 +1940,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1908,21 +1969,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -1931,23 +1998,29 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -1956,23 +2029,29 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -1981,23 +2060,29 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="20" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -2006,48 +2091,60 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
     </row>
@@ -2055,24 +2152,30 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
     </row>
@@ -2080,24 +2183,30 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
     </row>
@@ -2105,24 +2214,30 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
     </row>
@@ -2130,98 +2245,116 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2232,21 +2365,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2257,21 +2390,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2280,6 +2413,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H23:L23"/>
@@ -2296,49 +2472,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3F42D-5546-4E40-BE0E-40371BC08A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1684C3-7A3A-44B3-8F48-6959A334F6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -475,16 +475,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -702,14 +692,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面がない</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇×〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1112,131 +1119,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1590,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1607,25 +1614,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,23 +1647,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1671,50 +1678,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1723,20 +1730,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1746,32 +1753,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1779,32 +1786,32 @@
         <v>24</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1812,30 +1819,30 @@
         <v>24</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1853,18 +1860,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1872,7 +1879,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1882,18 +1889,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1911,18 +1918,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1930,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1940,18 +1947,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>24</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1969,18 +1976,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -1988,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -1998,20 +2005,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2029,20 +2036,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2050,7 +2057,7 @@
         <v>24</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2060,20 +2067,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="24" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2091,18 +2098,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2110,32 +2117,32 @@
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+        <v>63</v>
+      </c>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23" t="s">
+      <c r="C18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2143,7 +2150,7 @@
         <v>24</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
@@ -2152,21 +2159,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
@@ -2183,21 +2190,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
@@ -2214,21 +2221,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>24</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
@@ -2245,21 +2252,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2267,30 +2274,30 @@
         <v>24</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2298,30 +2305,30 @@
         <v>24</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="49" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2329,32 +2336,32 @@
         <v>24</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="49" t="s">
+      <c r="B25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
+      <c r="C25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2365,21 +2372,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2390,21 +2397,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2413,17 +2420,38 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H24:L24"/>
@@ -2440,38 +2468,17 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1684C3-7A3A-44B3-8F48-6959A334F6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFA6A38-FFA5-4188-BD97-B418FCD12D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -1119,6 +1119,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1128,6 +1140,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1137,113 +1215,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1614,25 +1614,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,23 +1647,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1678,50 +1678,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1730,20 +1730,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1753,32 +1753,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1788,30 +1788,30 @@
       <c r="O6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="29"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="61" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1821,28 +1821,28 @@
       <c r="O7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1860,18 +1860,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1889,18 +1889,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1918,18 +1918,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1947,18 +1947,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1976,18 +1976,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -2005,20 +2005,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -2036,20 +2036,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2067,20 +2067,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="20" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2098,18 +2098,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2119,30 +2119,30 @@
       <c r="O17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2159,21 +2159,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2190,21 +2190,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2221,21 +2221,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2252,21 +2252,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2276,28 +2276,28 @@
       <c r="O22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2307,28 +2307,28 @@
       <c r="O23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2338,30 +2338,30 @@
       <c r="O24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2372,24 +2372,30 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
     </row>
@@ -2397,21 +2403,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2420,6 +2426,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H23:L23"/>
@@ -2436,49 +2485,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFA6A38-FFA5-4188-BD97-B418FCD12D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6C2C19-0210-4BD4-B300-925F92011271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>作成者</t>
   </si>
@@ -717,6 +717,10 @@
   </si>
   <si>
     <t>〇×〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1119,131 +1123,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1597,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:O26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1614,25 +1618,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,23 +1651,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1678,50 +1682,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1730,20 +1734,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1753,32 +1757,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1788,30 +1792,30 @@
       <c r="O6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1821,28 +1825,28 @@
       <c r="O7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1860,18 +1864,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1889,18 +1893,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1918,18 +1922,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1947,18 +1951,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1976,18 +1980,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -2005,20 +2009,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -2036,20 +2040,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="24" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2067,20 +2071,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="24" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2098,18 +2102,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2119,30 +2123,30 @@
       <c r="O17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2159,21 +2163,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2190,21 +2194,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2221,21 +2225,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2252,21 +2256,21 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2276,28 +2280,28 @@
       <c r="O22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2307,28 +2311,28 @@
       <c r="O23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="49" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2338,33 +2342,39 @@
       <c r="O24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
@@ -2372,21 +2382,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="49" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
@@ -2403,40 +2413,67 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="49" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H24:L24"/>
@@ -2453,38 +2490,17 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6C2C19-0210-4BD4-B300-925F92011271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA34A30-8CC7-4C00-A785-12E8D4CB0F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -595,16 +595,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -692,13 +682,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面がない</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン前メニュー画面へ遷移すること</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
@@ -712,15 +695,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇×〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
+    <t>（修正済み）</t>
+    <rPh sb="1" eb="4">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「画面」の文字がない（修正済み）</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「システムエラー画面」に遷移する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1123,6 +1118,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1132,6 +1139,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1141,113 +1214,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1601,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1618,25 +1613,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,23 +1646,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1682,50 +1677,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1734,20 +1729,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1757,32 +1752,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1790,32 +1785,32 @@
         <v>24</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="61" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1823,30 +1818,30 @@
         <v>24</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
@@ -1854,7 +1849,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1864,18 +1859,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1893,18 +1888,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
@@ -1912,7 +1907,7 @@
         <v>24</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1922,18 +1917,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
@@ -1941,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1951,18 +1946,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
@@ -1970,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1980,18 +1975,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
@@ -1999,7 +1994,7 @@
         <v>24</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -2009,20 +2004,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
@@ -2030,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2040,20 +2035,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
@@ -2061,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2071,20 +2066,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="20" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
@@ -2092,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2102,18 +2097,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
@@ -2121,32 +2116,32 @@
         <v>24</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+        <v>62</v>
+      </c>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
@@ -2154,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
@@ -2163,21 +2158,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2185,7 +2180,7 @@
         <v>24</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
@@ -2194,21 +2189,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2216,7 +2211,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
@@ -2225,21 +2220,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2247,30 +2242,32 @@
         <v>24</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2278,30 +2275,30 @@
         <v>24</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2309,30 +2306,32 @@
         <v>24</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2340,32 +2339,32 @@
         <v>24</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="B25" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
+      <c r="C25" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>24</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -2382,21 +2381,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>24</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
@@ -2413,21 +2412,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
@@ -2435,13 +2434,57 @@
         <v>24</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H23:L23"/>
@@ -2458,49 +2501,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C16:G17"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA34A30-8CC7-4C00-A785-12E8D4CB0F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF54CDC-7C0D-4559-B00C-D535E097E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -716,6 +716,13 @@
   </si>
   <si>
     <t>「システムエラー画面」に遷移する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1059,7 +1066,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,9 +1086,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1103,9 +1107,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1117,6 +1118,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:L26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1613,25 +1617,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,798 +1650,798 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="18">
         <v>45504</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="15">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="18">
         <v>45504</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="15">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="18">
         <v>45504</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="24" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="15">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="18">
         <v>45504</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="24" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="15">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="18">
         <v>45504</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="24" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="15">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="18">
         <v>45504</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="24" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="15">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="18">
         <v>45504</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11.5" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="24" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="15">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="18">
         <v>45504</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="15">
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="18">
         <v>45504</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="51" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="24" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="15">
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="18">
         <v>45504</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="14" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="24" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="15">
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="18">
         <v>45504</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="11">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="24" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="15">
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="18">
         <v>45504</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="45"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="15">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="18">
         <v>45504</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="15">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="18">
         <v>45504</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="23" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="15">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="18">
         <v>45504</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
+      <c r="O20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="23" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="15">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="18">
         <v>45504</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="51"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="23" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="15">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="18">
         <v>45504</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="23" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="15">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="18">
         <v>45504</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="23"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="49" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="15">
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="18">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="15">
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="18">
         <v>45504</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="58.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="49" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="15">
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="18">
         <v>45504</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="58.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="49" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="15">
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="18">
         <v>45504</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="60">

--- a/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP007商品削除(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF54CDC-7C0D-4559-B00C-D535E097E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D175340-B22D-4F5D-92F8-ED2FC2B57749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -712,10 +712,6 @@
     <rPh sb="11" eb="14">
       <t>シュウセイズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「システムエラー画面」に遷移する</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1122,131 +1118,131 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1600,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1617,25 +1613,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,23 +1646,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="33" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1681,50 +1677,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1733,20 +1729,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1756,32 +1752,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="58"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="18">
         <v>45504</v>
       </c>
@@ -1791,30 +1787,30 @@
       <c r="O6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="22"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="26" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
       <c r="M7" s="18">
         <v>45504</v>
       </c>
@@ -1824,28 +1820,28 @@
       <c r="O7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="18">
         <v>45504</v>
       </c>
@@ -1863,18 +1859,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="18">
         <v>45504</v>
       </c>
@@ -1892,18 +1888,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="18">
         <v>45504</v>
       </c>
@@ -1921,18 +1917,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="18">
         <v>45504</v>
       </c>
@@ -1950,18 +1946,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="18">
         <v>45504</v>
       </c>
@@ -1979,18 +1975,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="18">
         <v>45504</v>
       </c>
@@ -2008,20 +2004,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="18">
         <v>45504</v>
       </c>
@@ -2039,20 +2035,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="18">
         <v>45504</v>
       </c>
@@ -2070,20 +2066,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="23" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18">
         <v>45504</v>
       </c>
@@ -2101,18 +2097,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="18">
         <v>45504</v>
       </c>
@@ -2122,30 +2118,30 @@
       <c r="O17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="22" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="18">
         <v>45504</v>
       </c>
@@ -2162,21 +2158,21 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="22" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="18">
         <v>45504</v>
       </c>
@@ -2193,21 +2189,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="22" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="18">
         <v>45504</v>
       </c>
@@ -2215,7 +2211,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -2224,21 +2220,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="22" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="18">
         <v>45504</v>
       </c>
@@ -2248,30 +2244,30 @@
       <c r="O21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="48" t="s">
+      <c r="P21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="50"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="18">
         <v>45504</v>
       </c>
@@ -2281,28 +2277,28 @@
       <c r="O22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="23" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="18">
         <v>45504</v>
       </c>
@@ -2312,30 +2308,30 @@
       <c r="O23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="48" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="18">
         <v>45504</v>
       </c>
@@ -2345,30 +2341,30 @@
       <c r="O24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="56.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="18">
         <v>45504</v>
       </c>
@@ -2385,21 +2381,21 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="48" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="18">
         <v>45504</v>
       </c>
@@ -2416,21 +2412,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="48" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="18">
         <v>45504</v>
       </c>
@@ -2445,18 +2441,38 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H24:L24"/>
@@ -2473,38 +2489,18 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
